--- a/4 четверть_1_HTML_CSS_свойства 3 - респонсив, адаптив, ppi, img.xlsx
+++ b/4 четверть_1_HTML_CSS_свойства 3 - респонсив, адаптив, ppi, img.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E132F-C823-4972-A487-4A4AB284F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA640E51-2533-4D8E-A8D3-F655FF5C2A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="@media Перенастройка css свойст" sheetId="38" r:id="rId1"/>
-    <sheet name="@media &lt;img&gt; background_image" sheetId="39" r:id="rId2"/>
+    <sheet name="@media респонсив, адаптив" sheetId="38" r:id="rId1"/>
+    <sheet name="@media ppi, dpi" sheetId="39" r:id="rId2"/>
     <sheet name="empty" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -3335,58 +3335,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ширина эркана (мм): 70.6
-Ширина эркана (дюймы): 2,755906
-Матрица экрана (px на дюйм): 460
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>css width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (460 * 2,755906)/(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>460/150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) = 1267,71/3 = 422,57 px</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -4910,17 +4858,122 @@
   <si>
     <t>Единицы измерения</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ширина эркана (мм): 70.6
+Ширина эркана (дюймы): 2,755906
+Матрица экрана (px на дюйм): 460
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (460 * 2,755906)/(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>460/150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = 1267,71/3 = 422,57 px
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">css width </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- это размер экрана любого устройства, переведенный к ppi desktop (ppi desktop = 150). Полученный размер используется разработчиком в качестве размера экрана выбранного устройства (в данном случае выше - мобильного), чтобы понимать размер экрана и изображения, которые будут рзмещены на нем (должны быть не более полученного значения). А далее необходимо установить (либо через backgroud, либо через &lt;picture&gt;) медиа-запрос, который определит dpi конкретного устройства, определит размер экрана по формуле выше и подберет соответствующее изображение x1,x2,x3.. для отображения.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5184,7 +5237,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5197,20 +5250,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5219,25 +5272,25 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5246,65 +5299,65 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5823,7 +5876,7 @@
   </sheetPr>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -5859,12 +5912,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -6076,57 +6129,57 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="A18" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="36"/>
       <c r="P18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>144</v>
       </c>
       <c r="P19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="39"/>
+      <c r="A20" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="37"/>
       <c r="P20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="C21" s="39" t="s">
-        <v>146</v>
+      <c r="C21" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="P21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="39"/>
+      <c r="A22" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="37"/>
       <c r="P22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>148</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>149</v>
       </c>
       <c r="P23" s="1"/>
       <c r="U23" s="1"/>
@@ -6410,8 +6463,8 @@
   </sheetPr>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6446,12 +6499,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -6474,7 +6527,7 @@
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="32"/>
@@ -6670,11 +6723,11 @@
       <c r="A11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -6801,10 +6854,10 @@
         <v>102</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
@@ -6825,13 +6878,13 @@
     <row r="17" spans="1:22" s="7" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
@@ -6857,10 +6910,10 @@
         <v>101</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
@@ -6880,13 +6933,13 @@
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+        <v>131</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -6905,10 +6958,10 @@
     </row>
     <row r="20" spans="1:22" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="30"/>
@@ -6932,10 +6985,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
@@ -6955,13 +7008,13 @@
     </row>
     <row r="22" spans="1:22" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>141</v>
       </c>
       <c r="D22" s="30"/>
       <c r="F22" s="1"/>
@@ -6984,7 +7037,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="30"/>
       <c r="F23" s="1"/>
@@ -7008,7 +7061,7 @@
         <v>82</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="30"/>
@@ -7058,7 +7111,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>74</v>
@@ -7153,7 +7206,7 @@
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>116</v>
@@ -7208,7 +7261,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
@@ -7253,13 +7306,13 @@
       <c r="U33" s="2"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" s="7" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" s="7" customFormat="1" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>113</v>
@@ -7311,7 +7364,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="30"/>
       <c r="F36" s="1"/>
@@ -7556,12 +7609,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
